--- a/biology/Botanique/Promenade_d'Australie/Promenade_d'Australie.xlsx
+++ b/biology/Botanique/Promenade_d'Australie/Promenade_d'Australie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Promenade_d%27Australie</t>
+          <t>Promenade_d'Australie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade d'Australie est une voie de promenade située dans le quartier de Grenelle du 15e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Promenade_d%27Australie</t>
+          <t>Promenade_d'Australie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est située entre le port de Suffren (côté Seine) et le quai Jacques-Chirac (côté rue). Elle se prolonge, au nord, par la promenade Marie-de-Roumanie.
 Elle est desservie par la ligne de RER   à la gare du Champ de Mars - Tour Eiffel.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Promenade_d%27Australie</t>
+          <t>Promenade_d'Australie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle porte ce nom car elle est proche de l'ambassade d'Australie[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle porte ce nom car elle est proche de l'ambassade d'Australie,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Promenade_d%27Australie</t>
+          <t>Promenade_d'Australie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est créée en 1941. Son nom originel est « promenade du Quai-Branly ». Au niveau du no 11 se trouvaient autrefois les écuries de Napoléon III puis de la présidence de la République[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est créée en 1941. Son nom originel est « promenade du Quai-Branly ». Au niveau du no 11 se trouvaient autrefois les écuries de Napoléon III puis de la présidence de la République.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Promenade_d%27Australie</t>
+          <t>Promenade_d'Australie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pont de Bir-Hakeim
-Tour Eiffel[4]
+Tour Eiffel
 Un buste du navigateur La Pérouse, offert par l'Australie.
 Un monument au général Diego Brosset.
 Un panneau Histoire de Paris en mémoire d'Armand de Chateaubriand, en lisière du quai Branly.
